--- a/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40E8494-582F-4EE2-B32E-2F8059E4B008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4758F995-BF70-40FE-BBA2-5BD7EAD2CE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="-19320" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
     <sheet name="DialogSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="ObjectDialogSheet" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>코하쿠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +126,58 @@
   </si>
   <si>
     <t>다이얼로그 테스트는 여기까지입니다. ^ㅁ^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트테스트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트테스트3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트테스트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 정보를 출력하는 다이얼로그 시트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 게시판에는 어떠한 정보도 올라와 있지 않는 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표지판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 방향 표지판에는 어떠한 정보도 적혀 있지 않는 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향 표지판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 표지판에는 어떠한 정보도 적혀 있지 않는 것 같다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,6 +268,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -543,7 +605,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,10 +723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,22 +738,22 @@
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
@@ -700,22 +762,22 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="M2" s="7" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="M2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -724,16 +786,16 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -742,16 +804,16 @@
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -760,16 +822,16 @@
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -778,16 +840,16 @@
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -796,16 +858,16 @@
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -814,19 +876,76 @@
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="C8:J8"/>
@@ -842,4 +961,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FE091-C91E-4704-8ABA-063015AC8278}">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="M1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="M2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4758F995-BF70-40FE-BBA2-5BD7EAD2CE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB31D52D-8762-4A6F-8D0F-C212C6FF1B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="-19320" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>코하쿠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,30 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안녕하세요. 코하쿠입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘은 대화 시스템 제작에 대해 배워보도록 하겠습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사를 Dialogs에 입력해두면 순차적으로 재생하게 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이렇게 DialogSystem을 여러 개 만들어서 분기를 구분할 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사로 이루어진 분기 사이에 캐릭터를 움직이거나 오브젝트를 생성하는 것과 같이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 진행에 필요한 여러 행동을 하고, 필요할 때 또 대사를 출력하도록 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DialogID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다이얼로그 테스트는 여기까지입니다. ^ㅁ^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +150,38 @@
   </si>
   <si>
     <t>아직 표지판에는 어떠한 정보도 적혀 있지 않는 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 스미스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog First</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog7 Final</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,6 +281,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -725,221 +732,224 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="M1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="M1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="M2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="M2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -967,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FE091-C91E-4704-8ABA-063015AC8278}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -978,176 +988,181 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="M1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="M1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="M2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="M2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
@@ -1156,11 +1171,6 @@
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB31D52D-8762-4A6F-8D0F-C212C6FF1B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4231A53-9878-44FC-9428-DB958D8F1C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>코하쿠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,26 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트테스트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트테스트3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트테스트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오브젝트 정보를 출력하는 다이얼로그 시트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,59 +109,370 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직 게시판에는 어떠한 정보도 올라와 있지 않는 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표지판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직 방향 표지판에는 어떠한 정보도 적혀 있지 않는 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방향 표지판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아직 표지판에는 어떠한 정보도 적혀 있지 않는 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블랙 스미스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog First</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog7 Final</t>
+    <t>오는 도중 문제는 없었나? 오랜만의 손님이라 그런지 신이나서 거칠게 운전했더군. 미안하네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">근데 이 작은 섬에는 무슨일인가? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 어떤가! 햇빛 마을의 촌장에게 한번 가보시게. 그라면 손님을 도와줄 수도 있을 것이네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도그리기는 잘 하고 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나중에 다 그리고 나면 나도 한번 보여주시게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오! 당신이 걸치고 있는 그거! 글라이딩 망토가 아닌가!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자세히 보니 품질도 아주 좋아보이는군!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 몰랐는데 이 섬에는 얻으면 기력이 솟는 광석이 있다는 소문이 있다네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">썬샤인 아일랜드와 햇빛 마을에 어서 오시게! 나는 이 마을의 촌장이라네. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음? 나에게 물어볼게 있다고? 편하게 물어보시게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 섬의 지도를 그리기 위해 섬의 지형이 잘 보이는 곳?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네 이 섬의 지도를 그리겠다니 그게 무슨 뜻인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오… 세계지도 그리기의 꿈을 위해 그 첫 시작을 여기서? 이건 섬 주민으로써 매우 기쁜 일이구만!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬의 정상에 올라가면 섬의 지형이 훠어어언이 보일 것이네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건… 내 욕심이네만… 혹시 우리 마을의 자랑인 이 광장 분수대도 같이 그려줄 수 있는가? 부탁이네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">음? 자네 종이도 있고 깃펜도 있는데 잉크가 없구만. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 상점에 가면 구할 수 있을 것이네. 잉크를 가져오면 분수대를 지도에 그리는 방법을 알려 주겠네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오! 잉크를 구해 왔는가! 그럼 분수대를 어떻게 그리는지 알려 주겠네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분수대 주변에 작은 안내판이 있을 것이네. 유서깊은 우리의 분수대를 자랑하기 위해서지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 안내판과 "상호작용"을 하면 쉽게 그릴 수 있을것이네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마 섬 곳곳에 우리의 분수대처럼 지도에 그릴 만한 것들이 있을 것 같구만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 지도가 완성되면 나도 꼭 보여주시게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자! 어디 한번 그려 보시게나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 자네! 섬의 지도를 그리고 있는건 잘 하고 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완성되면 어서 마을사람들에게 자랑하고 싶구만!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">없는 물건만 없는 햇빛 상점에 어서 오시게… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음껏 구경하고 살게 있으면 사고 팔게 있으면 팔면 되네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선장 데크</t>
+  </si>
+  <si>
+    <t>선장 데크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인 헤드</t>
+  </si>
+  <si>
+    <t>상인 헤드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의원 라벤더</t>
+  </si>
+  <si>
+    <t>의원 라벤더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장 제라드</t>
+  </si>
+  <si>
+    <t>촌장 제라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머! 처음 뵙는 모험가님 이시네요! 저는 이 마을의 하나뿐은 의원 라벤더에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 밖에는 모험가님을 공격하는 몬스터들이 나온다고 해요. 몸 조심하세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민 로브</t>
+  </si>
+  <si>
+    <t>주민 로브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민 오레트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민 포비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신! 이 절벽을 그냥 올라가려는건 아니지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭘 멀뚱멀뚱 보고있어? 정말 그냥 올라가려고 했던거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멍청하군! 이런 높은 절벽을 오를려면 "태양석"이 있어야 하는 거 모르냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에 한번…가보던가!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민 벨르가모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠깐! 당신 지금 빈손으로 마을 밖을 나가려고 하는 건가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 밖은 몬스터가 출연해요! 그대로 나가시면 위험할거에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 남쪽에 실력좋은 대장장이가 계셔요. 한번 가보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 밖으로 나가는거면 회복약을 챙겨가시는 것도 좋아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나에게 무슨 볼일이 있나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐음… 무기라… 지금 남는건 이 형편없는 단검밖에 없는데 괜찮은가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 내 기준에 형편없어 보이는 것이지 날은 잘 들걸세.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">음? 돈은 무슨. 그냥 가져가시게. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장장이 란타노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 세계지도를 그리는 꿈을 이루기 위해 왔다고? 그래그래, 작은섬 부터 시작하는 것도 나쁘지 않지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음? 섬의 지형이 잘보이는 곳이라… 나는 여기 주민이 아니여서 원하는 답변은 못해주겠구려.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"스페이스 바"를 꾹 누르면 글라이딩을 할 수 있다는 것을 잊지 말게나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아픈 일이 있으시면 언제든지 들려주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장에게 들었네. 섬의 지도를 그린다지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 고마워서 그러는 것이니, 그냥 가져가시게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 잘 쓰고 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항상 몸 조심하게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향 표지판</t>
+  </si>
+  <si>
+    <t>개시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만월 동굴의 몬스터가 급증하고 있다는 소식이 적혀있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">햇빛 마을이 처음 생길 때 마을의 부흥과 발전을 위해 지었다고 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 주민들과 방문객들의 만남의 장소로 자주 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무의 나이가 썬샤인아일랜드와 같다는 말이 있을 정도로 오래된 나무이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤이 되면 나무에 살고 있는 반딧불이들이 빛나는데 이 광경은 섬에서 손에 꼽히는 아름다운 광경이라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇 십년 전에 있었던 거대한 태풍때문에 돌아오지 못한 어부들을 기리기 위해 지은 등대이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래된 등대이기 때문에 현재는 항상 켜지 않지만, 태풍이 오는 날에는 무조건 누군가가 등대를 지켜 섬 앞바다를 밝히는 풍습이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 대장장이의 집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>푸른 해변      초록숲 -&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마녀의 집</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>햇빛마을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +480,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +505,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -229,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -252,13 +569,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,7 +704,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -292,8 +760,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,9 +1083,9 @@
       <selection sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -631,7 +1099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -646,7 +1114,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -661,7 +1129,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -676,7 +1144,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -691,7 +1159,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -706,7 +1174,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -730,239 +1198,1293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:J11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="M1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="M2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3">
+        <v>10002</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3">
+        <v>10002</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="7">
+        <v>10003</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="7">
+        <v>10003</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="7">
+        <v>10003</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="9">
+        <v>10004</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="M2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="9">
+        <v>10006</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="9">
+        <v>10006</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="9">
+        <v>10006</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="9">
+        <v>10006</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="7">
+        <v>10006</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="7">
+        <v>10006</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="7">
+        <v>10007</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="7">
+        <v>10007</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="9">
+        <v>10008</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="9">
+        <v>10008</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="9">
+        <v>10009</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="9">
+        <v>10009</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="9">
+        <v>10010</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7">
+        <v>10011</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7">
+        <v>10011</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7">
+        <v>10011</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="7">
+        <v>10011</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="9">
+        <v>10012</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="9">
+        <v>10012</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="9">
+        <v>10012</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="9">
+        <v>10013</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="9">
+        <v>10014</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="9">
+        <v>10014</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="9">
+        <v>10014</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="9">
+        <v>10014</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="9">
+        <v>10014</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="9">
+        <v>10014</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="9">
+        <v>10015</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="9">
+        <v>10015</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="9"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="9"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="9"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="24"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="7"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="7"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="15"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="7"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="7"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="15"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="24"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="15"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="15"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="15"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="15"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="7"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="15"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="7"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="15"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="7"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="15"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="7"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="75">
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
@@ -975,194 +2497,361 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FE091-C91E-4704-8ABA-063015AC8278}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C9" sqref="C9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="C1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="M1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>20001</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="M2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="M2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>20002</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>20003</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="9">
+        <v>20003</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="6">
+        <v>20004</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="6">
+        <v>20005</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="12">
+        <v>20005</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="7">
+        <v>20006</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="7">
+        <v>20007</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="7">
+        <v>20007</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
+  <mergeCells count="23">
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
@@ -1171,6 +2860,11 @@
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4231A53-9878-44FC-9428-DB958D8F1C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF7A028-E73E-4C1A-B74A-C83EEB030E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="123">
   <si>
     <t>코하쿠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오는 도중 문제는 없었나? 오랜만의 손님이라 그런지 신이나서 거칠게 운전했더군. 미안하네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">근데 이 작은 섬에는 무슨일인가? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지도그리기는 잘 하고 있는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나중에 다 그리고 나면 나도 한번 보여주시게!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나는 몰랐는데 이 섬에는 얻으면 기력이 솟는 광석이 있다는 소문이 있다네!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">썬샤인 아일랜드와 햇빛 마을에 어서 오시게! 나는 이 마을의 촌장이라네. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,14 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이건… 내 욕심이네만… 혹시 우리 마을의 자랑인 이 광장 분수대도 같이 그려줄 수 있는가? 부탁이네!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">음? 자네 종이도 있고 깃펜도 있는데 잉크가 없구만. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마을 상점에 가면 구할 수 있을 것이네. 잉크를 가져오면 분수대를 지도에 그리는 방법을 알려 주겠네!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,10 +301,6 @@
   </si>
   <si>
     <t xml:space="preserve">음? 돈은 무슨. 그냥 가져가시게. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대장장이 란타노</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -473,6 +449,136 @@
       </rPr>
       <t xml:space="preserve"> -&gt;</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장장이 빌</t>
+  </si>
+  <si>
+    <t>대장장이 빌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 이곳저곳 돌아다니는 상인이야~ 필요한게 있으면 한번 봐봐~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노인 케인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…음?...오랜만에…보는…사람이군…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시….괜찮다면….자네가…날…좀…도와주….겠…나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미…안…하네….지금…목…상태….가…매우…좋지…않아…서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲…에…있는…허브…들로…차를…만든...다면…금방…낫는...다네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 또 길을 잃었지 뭐야~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떠돌이상인 윤</t>
+  </si>
+  <si>
+    <t>떠돌이상인 윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 깊은 숲속에 사람이 있다니~! 대단한걸~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응~? 난 왜 여기있냐구~? 길을 잃었거든~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오~? 여기서 또 보네~?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무언가 필요한게 있니~? 한 번 보고 가~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광부 피콕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네 지금 동굴에 들어가려하는겨????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 이 불쌍한 광부의 부탁하나만 들어주면 안되는가????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 동굴은 난리부르스여!!!! 몬스터가 얼마나 많이 돌아다니는지….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고~~아이고~~난 이제 우야믄 좋노~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망할놈의 몬스터들 때문에 광부가 광질을 못혀!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검!!!! 그 검으로 저놈의 몬스터들 좀 어떻게하믄 안되는가???? 내 부탁좀 함세….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래는 아무도 모르던 지하 동굴의 호수였지만 천장이 무너지면서 사람들에게 알려진 곳이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 동굴을 달을 대신에 빛낸다는 이유로 달빛 호수라는 이름이 붙어졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 아름다운 곳이지만, 오는 길이 험해 마을 주민들을 거의 오지 못한다고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 절벽을 오르려면 많은 기력이 필요합니다. (최소 태양석 ?개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썬샤인 아일랜드의 정상. (해발 112m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오는 도중 문제는 없었나? 오랜만의 손님이라 그런지 신이나서 거칠게 운전했더군. 미안하네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 그리기는 잘 하고 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 몰랐는데 이 섬에는 얻으면 기력이 솟는 광석이 있다는 소문이 있어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이건… 내 욕심이네만… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 우리 마을의 자랑인 이 광장 분수대도 같이 그려줄 수 있는가? 부탁이네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">음? 자네... 종이도 있고 깃펜도 있는데 잉크가 없구만. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +824,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -725,6 +834,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,20 +863,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="C21" sqref="C21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1218,32 +1327,32 @@
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="M1" s="16" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="M1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="18"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3">
         <v>10001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -1252,1231 +1361,1377 @@
       <c r="H2" s="8"/>
       <c r="I2" s="10"/>
       <c r="J2" s="11"/>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3">
         <v>10001</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
+        <v>42</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>10001</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>10001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>10001</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3">
         <v>10002</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3">
         <v>10002</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="7">
         <v>10003</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="7">
         <v>10003</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7">
         <v>10003</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="9">
         <v>10004</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="9">
         <v>10005</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="9">
         <v>10005</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="9">
         <v>10005</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="9">
         <v>10005</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="9">
         <v>10005</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="9">
         <v>10005</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="9">
         <v>10005</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="9">
+      <c r="A20" s="13">
         <v>10005</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9">
         <v>10005</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="9">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="9">
         <v>10006</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="9">
         <v>10006</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="9">
         <v>10006</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="7">
+      <c r="A26" s="9">
         <v>10006</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7">
         <v>10006</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7">
         <v>10007</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="9">
-        <v>10008</v>
+      <c r="A30" s="7">
+        <v>10007</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="24"/>
+        <v>48</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="9">
         <v>10008</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="9">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="9">
         <v>10009</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="9">
+        <v>10009</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="9">
         <v>10010</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="7">
-        <v>10011</v>
-      </c>
       <c r="B35" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="7">
         <v>10011</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="7">
         <v>10011</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="7">
         <v>10011</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="9">
-        <v>10012</v>
+      <c r="A39" s="7">
+        <v>10011</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9">
         <v>10012</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="9">
         <v>10012</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="9">
-        <v>10013</v>
+        <v>10012</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="9">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="9">
         <v>10014</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="9">
         <v>10014</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="9">
         <v>10014</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
+      <c r="B46" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="9">
         <v>10014</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="15"/>
+      <c r="B47" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="9">
         <v>10014</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="24"/>
+      <c r="B48" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="9">
-        <v>10015</v>
-      </c>
-      <c r="B49" s="9" t="s">
+        <v>10014</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="9">
         <v>10015</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
+      <c r="B50" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="15"/>
+      <c r="A51" s="9">
+        <v>10015</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15"/>
+      <c r="A52" s="9">
+        <v>10016</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="15"/>
+      <c r="A53" s="13">
+        <v>10016</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="9"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15"/>
+      <c r="A54" s="13">
+        <v>10016</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="9"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
+      <c r="A55" s="13">
+        <v>10017</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="9"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
+      <c r="A56" s="13">
+        <v>10017</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
+      <c r="A57" s="13">
+        <v>10017</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15"/>
+      <c r="A58" s="13">
+        <v>10017</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="15"/>
+      <c r="A59" s="13">
+        <v>10018</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="15"/>
+      <c r="A60" s="13">
+        <v>10018</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15"/>
+      <c r="A61" s="13">
+        <v>10018</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="7"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="15"/>
+      <c r="A62" s="7">
+        <v>10019</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="7"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="15"/>
+      <c r="A63" s="7">
+        <v>10019</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="18"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="7"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="15"/>
+      <c r="A64" s="7">
+        <v>10019</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="7"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15"/>
+      <c r="A65" s="7">
+        <v>10019</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="24"/>
+      <c r="A66" s="7">
+        <v>10019</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="18"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="15"/>
+      <c r="A67" s="7">
+        <v>10019</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="15"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="7"/>
       <c r="B71" s="9"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="15"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="7"/>
       <c r="B72" s="9"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="15"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="7"/>
       <c r="B73" s="9"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="15"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="7"/>
       <c r="B74" s="9"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="15"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="18"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="7"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="7"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="7"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="7"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
+  <mergeCells count="84">
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="M1:P1"/>
@@ -2488,6 +2743,79 @@
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2500,7 +2828,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:J9"/>
+      <selection activeCell="C16" sqref="C16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2515,23 +2843,23 @@
       <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="M1" s="26" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="6">
@@ -2540,131 +2868,131 @@
       <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="M2" s="19" t="s">
+      <c r="C2" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="M2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="6">
         <v>20002</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+        <v>78</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6">
         <v>20003</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="9">
         <v>20003</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="6">
         <v>20004</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="6">
         <v>20005</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="12">
         <v>20005</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="7">
@@ -2674,184 +3002,210 @@
         <v>19</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+        <v>89</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="7">
         <v>20007</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="7">
         <v>20007</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
+      <c r="A12" s="7">
+        <v>20008</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="A13" s="7">
+        <v>20008</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="A14" s="7">
+        <v>20008</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
+      <c r="A15" s="7">
+        <v>20009</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="A16" s="12">
+        <v>20010</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
     <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
@@ -2860,13 +3214,18 @@
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF7A028-E73E-4C1A-B74A-C83EEB030E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9CADFB-D7C9-4B27-9869-ACAED4B9FB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="-19320" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -558,10 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오는 도중 문제는 없었나? 오랜만의 손님이라 그런지 신이나서 거칠게 운전했더군. 미안하네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지도 그리기는 잘 하고 있는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,6 +575,11 @@
   </si>
   <si>
     <t xml:space="preserve">음? 자네... 종이도 있고 깃펜도 있는데 잉크가 없구만. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오는 도중 문제는 없었나? 
+오랜만의 손님이라 그런지 신이나서 거칠게 운전했더군. 미안하네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +653,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -712,79 +713,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,16 +745,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,12 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,15 +774,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -871,6 +782,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1327,154 +1247,154 @@
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="M1" s="19" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="M1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" ht="35.25" customHeight="1">
       <c r="A2" s="3">
         <v>10001</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="M2" s="22" t="s">
+      <c r="C2" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="M2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3">
         <v>10001</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>10001</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>10001</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>10001</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3">
         <v>10002</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
+      <c r="C7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3">
         <v>10002</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="7">
@@ -1483,16 +1403,16 @@
       <c r="B9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="7">
@@ -1501,16 +1421,16 @@
       <c r="B10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7">
@@ -1519,1271 +1439,1238 @@
       <c r="B11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>10004</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
+      <c r="C12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>10005</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>10005</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>10005</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>10005</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>10005</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>10005</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>10005</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
+      <c r="C19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13">
+      <c r="A20" s="10">
         <v>10005</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+      <c r="C20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>10005</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
+      <c r="C21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>10005</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>10006</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>10006</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>10006</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>10006</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7">
         <v>10006</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7">
         <v>10006</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7">
         <v>10007</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="7">
         <v>10007</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>10008</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>10008</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>10009</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>10009</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>10010</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="7">
         <v>10011</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="7">
         <v>10011</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="7">
         <v>10011</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="7">
         <v>10011</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>10012</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>10012</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="13"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>10012</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>10013</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="13"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>10014</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>10014</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>10014</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>10014</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="9">
+      <c r="A48" s="8">
         <v>10014</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>10014</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="18"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>10015</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>10015</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="13"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="9">
+      <c r="A52" s="8">
         <v>10016</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="13"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="13">
+      <c r="A53" s="10">
         <v>10016</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="13"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="13">
+      <c r="A54" s="10">
         <v>10016</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="13">
+      <c r="A55" s="10">
         <v>10017</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="13">
+      <c r="A56" s="10">
         <v>10017</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="13">
+      <c r="A57" s="10">
         <v>10017</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="13">
+      <c r="A58" s="10">
         <v>10017</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="13">
+      <c r="A59" s="10">
         <v>10018</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="13"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="13">
+      <c r="A60" s="10">
         <v>10018</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="13">
+      <c r="A61" s="10">
         <v>10018</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="13"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="7">
         <v>10019</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="13"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="7">
         <v>10019</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="18"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="13"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="7">
         <v>10019</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="7">
         <v>10019</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="13"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="7">
         <v>10019</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="18"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="13"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="7">
         <v>10019</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="13"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="13"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="13"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="13"/>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="7"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="13"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="7"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="13"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="7"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="13"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="7"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="13"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="18"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="13"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="13"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="13"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="13"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="13"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="7"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="13"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="7"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="13"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="7"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="13"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="7"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
+  <mergeCells count="85">
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
     <mergeCell ref="C52:J52"/>
     <mergeCell ref="C53:J53"/>
     <mergeCell ref="C54:J54"/>
@@ -2797,25 +2684,59 @@
     <mergeCell ref="C61:J61"/>
     <mergeCell ref="C62:J62"/>
     <mergeCell ref="C63:J63"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="C82:J82"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2828,7 +2749,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:J16"/>
+      <selection activeCell="J22" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2843,23 +2764,23 @@
       <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="M1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="6">
@@ -2868,23 +2789,23 @@
       <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="M2" s="22" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="M2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="6">
@@ -2893,16 +2814,16 @@
       <c r="B3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6">
@@ -2911,52 +2832,52 @@
       <c r="B4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>20003</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="6">
         <v>20004</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="6">
@@ -2965,34 +2886,34 @@
       <c r="B7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>20005</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="7">
@@ -3001,211 +2922,214 @@
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="7">
         <v>20007</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="7">
         <v>20007</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="7">
         <v>20008</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="7">
         <v>20008</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="7">
         <v>20008</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="7">
         <v>20009</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>20010</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
@@ -3214,15 +3138,12 @@
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9CADFB-D7C9-4B27-9869-ACAED4B9FB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4F7D14-FD03-4E14-969D-7A7E12A4B91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" activeTab="2" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
   <si>
     <t>코하쿠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,22 +356,6 @@
   </si>
   <si>
     <t>현재는 주민들과 방문객들의 만남의 장소로 자주 사용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무의 나이가 썬샤인아일랜드와 같다는 말이 있을 정도로 오래된 나무이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤이 되면 나무에 살고 있는 반딧불이들이 빛나는데 이 광경은 섬에서 손에 꼽히는 아름다운 광경이라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몇 십년 전에 있었던 거대한 태풍때문에 돌아오지 못한 어부들을 기리기 위해 지은 등대이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오래된 등대이기 때문에 현재는 항상 켜지 않지만, 태풍이 오는 날에는 무조건 누군가가 등대를 지켜 섬 앞바다를 밝히는 풍습이 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,22 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…음?...오랜만에…보는…사람이군…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시….괜찮다면….자네가…날…좀…도와주….겠…나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미…안…하네….지금…목…상태….가…매우…좋지…않아…서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숲…에…있는…허브…들로…차를…만든...다면…금방…낫는...다네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>난 또 길을 잃었지 뭐야~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,10 +459,6 @@
   </si>
   <si>
     <t>떠돌이상인 윤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 깊은 숲속에 사람이 있다니~! 대단한걸~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -580,6 +544,50 @@
   <si>
     <t>오는 도중 문제는 없었나? 
 오랜만의 손님이라 그런지 신이나서 거칠게 운전했더군. 미안하네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미…안…하네….지금…목…상태….가…매우…좋지…않아…서…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…음?...오랜만에…보는…사람...이군…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시….괜찮다면….자네가…날…좀…도와주겠...나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬에…자라는…허브들로…차를…만든다면…금방…낫는...다네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부탁….좀…함세...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 깊은 숲속에 사람이 오다니~! 대단한걸~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤이 되면 나무에 살고 있는 반딧불이들이 빛나는데 이 광경은 섬에서 
+손 꼽히는 아름다운 광경이라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무의 나이가 썬샤인아일랜드와 같다는 말이 있을 정도로 오래된 나무
+이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇 십년 전에 있었던 거대한 태풍때문에 돌아오지 못한 어부들을 
+기리기 위해 지은 등대이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래된 등대이기 때문에 현재는 항상 켜지 않지만, 태풍이 오는 날에는 
+무조건 누군가가 등대를 지켜 섬 앞바다를 밝히는 풍습이 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +761,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -774,6 +785,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -783,14 +803,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1247,22 +1261,22 @@
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="M1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" ht="35.25" customHeight="1">
       <c r="A2" s="3">
@@ -1271,22 +1285,22 @@
       <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="M2" s="17" t="s">
+      <c r="C2" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="M2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3">
@@ -1295,16 +1309,16 @@
       <c r="B3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3">
@@ -1313,16 +1327,16 @@
       <c r="B4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3">
@@ -1331,16 +1345,16 @@
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3">
@@ -1349,16 +1363,16 @@
       <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3">
@@ -1367,16 +1381,16 @@
       <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
+      <c r="C7" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3">
@@ -1385,16 +1399,16 @@
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="7">
@@ -1403,16 +1417,16 @@
       <c r="B9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="7">
@@ -1421,16 +1435,16 @@
       <c r="B10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7">
@@ -1439,16 +1453,16 @@
       <c r="B11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="8">
@@ -1457,16 +1471,16 @@
       <c r="B12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8">
@@ -1475,16 +1489,16 @@
       <c r="B13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="8">
@@ -1493,16 +1507,16 @@
       <c r="B14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8">
@@ -1511,16 +1525,16 @@
       <c r="B15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8">
@@ -1529,16 +1543,16 @@
       <c r="B16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8">
@@ -1547,16 +1561,16 @@
       <c r="B17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8">
@@ -1565,16 +1579,16 @@
       <c r="B18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8">
@@ -1583,16 +1597,16 @@
       <c r="B19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
+      <c r="C19" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="10">
@@ -1601,16 +1615,16 @@
       <c r="B20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
+      <c r="C20" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8">
@@ -1619,16 +1633,16 @@
       <c r="B21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
+      <c r="C21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="8">
@@ -1637,16 +1651,16 @@
       <c r="B22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="8">
@@ -1655,16 +1669,16 @@
       <c r="B23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="8">
@@ -1673,16 +1687,16 @@
       <c r="B24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="8">
@@ -1691,16 +1705,16 @@
       <c r="B25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="8">
@@ -1709,16 +1723,16 @@
       <c r="B26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7">
@@ -1727,16 +1741,16 @@
       <c r="B27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7">
@@ -1745,16 +1759,16 @@
       <c r="B28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7">
@@ -1763,16 +1777,16 @@
       <c r="B29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="7">
@@ -1781,16 +1795,16 @@
       <c r="B30" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="8">
@@ -1799,16 +1813,16 @@
       <c r="B31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="8">
@@ -1817,16 +1831,16 @@
       <c r="B32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="8">
@@ -1835,16 +1849,16 @@
       <c r="B33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="8">
@@ -1853,16 +1867,16 @@
       <c r="B34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="8">
@@ -1871,16 +1885,16 @@
       <c r="B35" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="7">
@@ -1889,16 +1903,16 @@
       <c r="B36" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="7">
@@ -1907,16 +1921,16 @@
       <c r="B37" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="7">
@@ -1925,16 +1939,16 @@
       <c r="B38" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="7">
@@ -1943,16 +1957,16 @@
       <c r="B39" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="8">
@@ -1961,16 +1975,16 @@
       <c r="B40" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="8">
@@ -1979,16 +1993,16 @@
       <c r="B41" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="8">
@@ -1997,16 +2011,16 @@
       <c r="B42" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="8">
@@ -2015,675 +2029,694 @@
       <c r="B43" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="8">
         <v>10014</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="8">
         <v>10014</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="8">
         <v>10014</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="8">
         <v>10014</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="8">
         <v>10014</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="8">
         <v>10014</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="8">
         <v>10015</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="8">
         <v>10015</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="14"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="8">
         <v>10016</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="10">
         <v>10016</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="14"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="10">
         <v>10016</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="14"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="10">
         <v>10017</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="10">
         <v>10017</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="14"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="10">
         <v>10017</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="14"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="10">
         <v>10017</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="14"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="10">
-        <v>10018</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="13"/>
+      <c r="A59" s="11">
+        <v>10017</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="14"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="10">
         <v>10018</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="14"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="10">
         <v>10018</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="14"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="7">
-        <v>10019</v>
+      <c r="A62" s="10">
+        <v>10018</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="14"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="7">
         <v>10019</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="7">
         <v>10019</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="14"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="7">
         <v>10019</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="14"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="7">
         <v>10019</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="14"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="7">
         <v>10019</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="14"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="13"/>
+      <c r="A68" s="7">
+        <v>10019</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="14"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="13"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="14"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="13"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="14"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="7"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="13"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="14"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="13"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="14"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="13"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="14"/>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="13"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="14"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="8"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="8"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="13"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="14"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="13"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="14"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="13"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="14"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="13"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="14"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="13"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="14"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="7"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="8"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="13"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="14"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="13"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="14"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="13"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="14"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="13"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="14"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="C80:J80"/>
+  <mergeCells count="86">
     <mergeCell ref="C81:J81"/>
     <mergeCell ref="C82:J82"/>
     <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C84:J84"/>
     <mergeCell ref="C76:J76"/>
     <mergeCell ref="C77:J77"/>
     <mergeCell ref="C78:J78"/>
     <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C80:J80"/>
     <mergeCell ref="C71:J71"/>
     <mergeCell ref="C72:J72"/>
     <mergeCell ref="C73:J73"/>
     <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C75:J75"/>
     <mergeCell ref="C66:J66"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
     <mergeCell ref="C52:J52"/>
     <mergeCell ref="C53:J53"/>
     <mergeCell ref="C54:J54"/>
     <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C65:J65"/>
     <mergeCell ref="C56:J56"/>
     <mergeCell ref="C57:J57"/>
     <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
     <mergeCell ref="C60:J60"/>
     <mergeCell ref="C61:J61"/>
     <mergeCell ref="C62:J62"/>
     <mergeCell ref="C63:J63"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C59:J59"/>
     <mergeCell ref="C47:J47"/>
     <mergeCell ref="C48:J48"/>
     <mergeCell ref="C49:J49"/>
@@ -2748,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FE091-C91E-4704-8ABA-063015AC8278}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2764,23 +2797,23 @@
       <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="M1" s="20" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="6">
@@ -2789,23 +2822,23 @@
       <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="M2" s="17" t="s">
+      <c r="C2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="M2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="6">
@@ -2814,16 +2847,16 @@
       <c r="B3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6">
@@ -2832,16 +2865,16 @@
       <c r="B4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8">
@@ -2850,16 +2883,16 @@
       <c r="B5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="6">
@@ -2868,16 +2901,16 @@
       <c r="B6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="C6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="6">
@@ -2886,16 +2919,16 @@
       <c r="B7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="C7" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="9">
@@ -2904,16 +2937,16 @@
       <c r="B8" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="C8" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="7">
@@ -2922,16 +2955,16 @@
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="C9" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="7">
@@ -2940,16 +2973,16 @@
       <c r="B10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="C10" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="7">
@@ -2958,16 +2991,16 @@
       <c r="B11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="C11" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="7">
@@ -2976,16 +3009,16 @@
       <c r="B12" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="C12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="7">
@@ -2994,16 +3027,16 @@
       <c r="B13" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="C13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="7">
@@ -3012,16 +3045,16 @@
       <c r="B14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="C14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="7">
@@ -3030,16 +3063,16 @@
       <c r="B15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="C15" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="9">
@@ -3048,76 +3081,76 @@
       <c r="B16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="C16" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4F7D14-FD03-4E14-969D-7A7E12A4B91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A15409-881E-4E77-93DF-269ADBCE9A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" activeTab="2" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이건 어떤가! 햇빛 마을의 촌장에게 한번 가보시게. 그라면 손님을 도와줄 수도 있을 것이네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나중에 다 그리고 나면 나도 한번 보여주시게!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자네 이 섬의 지도를 그리겠다니 그게 무슨 뜻인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오… 세계지도 그리기의 꿈을 위해 그 첫 시작을 여기서? 이건 섬 주민으로써 매우 기쁜 일이구만!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어머! 처음 뵙는 모험가님 이시네요! 저는 이 마을의 하나뿐은 의원 라벤더에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마을 밖에는 모험가님을 공격하는 몬스터들이 나온다고 해요. 몸 조심하세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +293,6 @@
   </si>
   <si>
     <t>오, 세계지도를 그리는 꿈을 이루기 위해 왔다고? 그래그래, 작은섬 부터 시작하는 것도 나쁘지 않지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음? 섬의 지형이 잘보이는 곳이라… 나는 여기 주민이 아니여서 원하는 답변은 못해주겠구려.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -534,10 +518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>혹시 우리 마을의 자랑인 이 광장 분수대도 같이 그려줄 수 있는가? 부탁이네!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">음? 자네... 종이도 있고 깃펜도 있는데 잉크가 없구만. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,6 +568,29 @@
   <si>
     <t>오래된 등대이기 때문에 현재는 항상 켜지 않지만, 태풍이 오는 날에는 
 무조건 누군가가 등대를 지켜 섬 앞바다를 밝히는 풍습이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네, 이 섬의 지도를 그리겠다니 그게 무슨 뜻인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 우리 마을의 자랑인 이 광장 분수대도 같이 그려줄 수 있는가? 
+부탁이네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음? 섬의 지형이 잘보이는 곳이라… 나는 여기 주민이 아니여서 원하는 
+답변은 못해주겠구려.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 어떤가! 햇빛 마을의 촌장에게 한번 가보시게. 촌장이라면 손님을 도와줄 수도 있을 것이네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머! 처음 뵙는 모험가님 이시네요! 저는 이 마을의 하나뿐은 의원,
+라벤더라고해요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +807,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1243,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:J52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1283,10 +1289,10 @@
         <v>10001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -1307,7 +1313,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>20</v>
@@ -1325,10 +1331,10 @@
         <v>10001</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1343,10 +1349,10 @@
         <v>10001</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1361,10 +1367,10 @@
         <v>10001</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -1379,10 +1385,10 @@
         <v>10002</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -1397,10 +1403,10 @@
         <v>10002</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -1415,10 +1421,10 @@
         <v>10003</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -1433,10 +1439,10 @@
         <v>10003</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -1451,10 +1457,10 @@
         <v>10003</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1469,10 +1475,10 @@
         <v>10004</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -1487,10 +1493,10 @@
         <v>10005</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -1505,10 +1511,10 @@
         <v>10005</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -1523,10 +1529,10 @@
         <v>10005</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -1541,10 +1547,10 @@
         <v>10005</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -1559,10 +1565,10 @@
         <v>10005</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -1577,10 +1583,10 @@
         <v>10005</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -1595,10 +1601,10 @@
         <v>10005</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -1613,10 +1619,10 @@
         <v>10005</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>120</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -1631,10 +1637,10 @@
         <v>10005</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -1649,10 +1655,10 @@
         <v>10005</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -1667,10 +1673,10 @@
         <v>10006</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -1685,10 +1691,10 @@
         <v>10006</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -1703,10 +1709,10 @@
         <v>10006</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -1721,10 +1727,10 @@
         <v>10006</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -1739,10 +1745,10 @@
         <v>10006</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -1757,10 +1763,10 @@
         <v>10006</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -1775,10 +1781,10 @@
         <v>10007</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -1793,10 +1799,10 @@
         <v>10007</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -1811,10 +1817,10 @@
         <v>10008</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -1829,10 +1835,10 @@
         <v>10008</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -1847,10 +1853,10 @@
         <v>10009</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -1865,10 +1871,10 @@
         <v>10009</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -1883,10 +1889,10 @@
         <v>10010</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -1901,10 +1907,10 @@
         <v>10011</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -1919,10 +1925,10 @@
         <v>10011</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
@@ -1937,10 +1943,10 @@
         <v>10011</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -1955,10 +1961,10 @@
         <v>10011</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -1973,10 +1979,10 @@
         <v>10012</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -1991,10 +1997,10 @@
         <v>10012</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -2009,10 +2015,10 @@
         <v>10012</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -2027,10 +2033,10 @@
         <v>10013</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -2045,10 +2051,10 @@
         <v>10014</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
@@ -2063,10 +2069,10 @@
         <v>10014</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -2081,10 +2087,10 @@
         <v>10014</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -2099,10 +2105,10 @@
         <v>10014</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -2117,10 +2123,10 @@
         <v>10014</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
@@ -2135,10 +2141,10 @@
         <v>10014</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
@@ -2153,10 +2159,10 @@
         <v>10015</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -2171,10 +2177,10 @@
         <v>10015</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
@@ -2189,10 +2195,10 @@
         <v>10016</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
@@ -2207,10 +2213,10 @@
         <v>10016</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -2225,10 +2231,10 @@
         <v>10016</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
@@ -2243,10 +2249,10 @@
         <v>10017</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
@@ -2261,10 +2267,10 @@
         <v>10017</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
@@ -2279,10 +2285,10 @@
         <v>10017</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -2297,10 +2303,10 @@
         <v>10017</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
@@ -2315,10 +2321,10 @@
         <v>10017</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
@@ -2333,10 +2339,10 @@
         <v>10018</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
@@ -2351,10 +2357,10 @@
         <v>10018</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
@@ -2369,10 +2375,10 @@
         <v>10018</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
@@ -2387,10 +2393,10 @@
         <v>10019</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -2405,10 +2411,10 @@
         <v>10019</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
@@ -2423,10 +2429,10 @@
         <v>10019</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -2441,10 +2447,10 @@
         <v>10019</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
@@ -2459,10 +2465,10 @@
         <v>10019</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
@@ -2477,10 +2483,10 @@
         <v>10019</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
@@ -2684,25 +2690,59 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="C82:J82"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
     <mergeCell ref="C52:J52"/>
     <mergeCell ref="C53:J53"/>
     <mergeCell ref="C54:J54"/>
@@ -2717,59 +2757,25 @@
     <mergeCell ref="C63:J63"/>
     <mergeCell ref="C64:J64"/>
     <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2781,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FE091-C91E-4704-8ABA-063015AC8278}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13:J13"/>
     </sheetView>
   </sheetViews>
@@ -2823,7 +2829,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -2845,10 +2851,10 @@
         <v>20002</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -2863,10 +2869,10 @@
         <v>20003</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -2881,10 +2887,10 @@
         <v>20003</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -2899,10 +2905,10 @@
         <v>20004</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -2917,10 +2923,10 @@
         <v>20005</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -2935,10 +2941,10 @@
         <v>20005</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -2956,7 +2962,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -2971,10 +2977,10 @@
         <v>20007</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -2989,10 +2995,10 @@
         <v>20007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -3007,10 +3013,10 @@
         <v>20008</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -3025,10 +3031,10 @@
         <v>20008</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -3043,10 +3049,10 @@
         <v>20008</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -3061,10 +3067,10 @@
         <v>20009</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -3079,10 +3085,10 @@
         <v>20010</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -3154,6 +3160,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
@@ -3163,20 +3183,6 @@
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A15409-881E-4E77-93DF-269ADBCE9A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D5DA05-6DDC-46EB-9A4D-60C6595E9274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="-120" windowWidth="28035" windowHeight="16440" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
   <si>
     <t>코하쿠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,6 +591,10 @@
   <si>
     <t>어머! 처음 뵙는 모험가님 이시네요! 저는 이 마을의 하나뿐은 의원,
 라벤더라고해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"마녀수련여행 중…" - 마녀 -</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,6 +780,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -807,9 +814,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1249,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C33" sqref="C33:J33"/>
     </sheetView>
   </sheetViews>
@@ -1267,22 +1271,22 @@
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
-      <c r="M1" s="15" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="M1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" ht="35.25" customHeight="1">
       <c r="A2" s="3">
@@ -1291,22 +1295,22 @@
       <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="M2" s="18" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="M2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3">
@@ -1351,7 +1355,7 @@
       <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="15" t="s">
         <v>121</v>
       </c>
       <c r="D5" s="13"/>
@@ -1621,7 +1625,7 @@
       <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="15" t="s">
         <v>120</v>
       </c>
       <c r="D20" s="13"/>
@@ -1855,7 +1859,7 @@
       <c r="B33" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="15" t="s">
         <v>123</v>
       </c>
       <c r="D33" s="13"/>
@@ -2787,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FE091-C91E-4704-8ABA-063015AC8278}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2803,23 +2807,23 @@
       <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="M1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="M1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="6">
@@ -2828,23 +2832,23 @@
       <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="M2" s="18" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="M2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="6">
@@ -2853,16 +2857,16 @@
       <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6">
@@ -2871,16 +2875,16 @@
       <c r="B4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8">
@@ -2889,16 +2893,16 @@
       <c r="B5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="6">
@@ -2907,16 +2911,16 @@
       <c r="B6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="6">
@@ -2925,16 +2929,16 @@
       <c r="B7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="9">
@@ -2943,16 +2947,16 @@
       <c r="B8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="7">
@@ -2961,16 +2965,16 @@
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="7">
@@ -2979,16 +2983,16 @@
       <c r="B10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="7">
@@ -2997,16 +3001,16 @@
       <c r="B11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="7">
@@ -3015,16 +3019,16 @@
       <c r="B12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="7">
@@ -3033,16 +3037,16 @@
       <c r="B13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="7">
@@ -3051,16 +3055,16 @@
       <c r="B14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="7">
@@ -3069,16 +3073,16 @@
       <c r="B15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="9">
@@ -3087,76 +3091,82 @@
       <c r="B16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="A17" s="9">
+        <v>20011</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694D7F78-9B7D-4E9C-9878-531B4B2CD11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5737B252-0721-4498-8DCC-517A4A741B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="168">
   <si>
     <t>코하쿠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,10 +563,6 @@
   </si>
   <si>
     <t>QuestContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깃펜을 장비한 상태에서 햇빛마을에 있는 분수대를 지도에 그려보자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -638,6 +634,124 @@
   </si>
   <si>
     <t>NpcName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartDialogID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndDialogID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛 마을의 촌장을 만나자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛 마을에 방문하여 촌장 제러드를 찾아가자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푹신침낭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째 재료: 250코인을 구해오자! (최종)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양석2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 잉크를 구해오자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민 베르가모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장장이를 찾아가 무기를 얻자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허브를 10개 모아오자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고목의 마녀 킨킨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵을 돌아다니며 빨간버섯 7개와 갈색버섯 7개를 채집해 마녀에게 건내자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵을 돌아다니며 초록 불가사리 15마리를 채집해 마녀에게 건내자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 재료: 버섯들을 구해오자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 재료: 초록 불가사리를 구해오자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵을 돌아다니며 허브 10개를 모아서 케인에게 찾아가자.
+(케인이 큰 선물을 준다는데?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수단과 방법을 가리지 않고 250코인을 모아 마녀에게 건내자.
+(마녀 킨킨이 유용한 선물을 준다고 한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 1을 수락하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛 마을에 있는 상점에 들려 잉크를 구매하여 촌장 제라드에게 다시 방문하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃펜을 장비한 상태에서 햇빛마을에 있는 분수대를 지도에 그려보고 촌장 제라드에게 다시 방문하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛 마을의 대장장이를 찾아가서 무기를 얻어보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘따라… 무릎이… 참말로 시리구만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 2를 수락하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 3을 수락하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스틑 3을 완료합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 2를 완료합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 1을 완료합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 5를 완료합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,46 +932,85 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,6 +1053,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1239,151 +1401,151 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1394,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
-  <dimension ref="A1:T89"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:J34"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1414,26 +1576,26 @@
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="M1" s="24" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="M1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="26"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1442,26 +1604,26 @@
       <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="M2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="M2" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1470,24 +1632,24 @@
       <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1496,68 +1658,68 @@
       <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>11000</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>11000</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1566,458 +1728,458 @@
       <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="A8" s="16">
         <v>11001</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>11090</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="C9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>11090</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
-        <v>11090</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
+      <c r="A10" s="5">
+        <v>11100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>11100</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <v>11090</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
+      <c r="A12" s="5">
+        <v>11100</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <v>11090</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
+      <c r="A13" s="6">
+        <v>11200</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>11100</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
+      <c r="A14" s="6">
+        <v>11300</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>11100</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
+      <c r="A15" s="12">
+        <v>11300</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>11100</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
+      <c r="A16" s="12">
+        <v>11300</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>11200</v>
+      <c r="A17" s="16">
+        <v>11300</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="16">
         <v>11300</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="16">
         <v>11300</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
+      <c r="C19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="16">
         <v>11300</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
+      <c r="C20" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="16">
         <v>11300</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
+      <c r="C21" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+      <c r="A22" s="16">
         <v>11300</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
+      <c r="C22" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="16">
         <v>11300</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
+      <c r="C23" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
-        <v>11300</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="6">
+        <v>11301</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
+      <c r="C24" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
-        <v>11300</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="16">
+        <v>11301</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
+      <c r="C25" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
-        <v>11300</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="16">
+        <v>11301</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
+      <c r="C26" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
-        <v>11300</v>
+      <c r="A27" s="16">
+        <v>11301</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
+      <c r="C27" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="16">
         <v>11301</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
+      <c r="C28" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+      <c r="A29" s="16">
         <v>11301</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
+      <c r="C29" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
-        <v>11301</v>
+      <c r="A30" s="5">
+        <v>11302</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
+      <c r="C30" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
-        <v>11301</v>
+      <c r="A31" s="5">
+        <v>11302</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
+      <c r="C31" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
-        <v>11301</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>45</v>
+      <c r="A32" s="18">
+        <v>11390</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -2028,166 +2190,166 @@
       <c r="J32" s="30"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
-        <v>11301</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="30"/>
+      <c r="A33" s="18">
+        <v>11391</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="36"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>11302</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
+      <c r="A34" s="18">
+        <v>11392</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="36"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>11302</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="30"/>
+      <c r="A35" s="18">
+        <v>11393</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="36"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="18">
+        <v>11394</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
         <v>11400</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C37" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="30"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="43"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
         <v>11400</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C38" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="30"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="43"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>11500</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C39" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="30"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="19">
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
         <v>11500</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C40" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="30"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="43"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
         <v>11501</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C41" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="30"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>11600</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="30"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="43"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
@@ -2196,16 +2358,16 @@
       <c r="B42" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="30"/>
+      <c r="C42" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="43"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
@@ -2214,16 +2376,16 @@
       <c r="B43" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="30"/>
+      <c r="C43" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
@@ -2232,80 +2394,80 @@
       <c r="B44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="43"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>11600</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="30"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>11700</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="30"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="19">
+      <c r="A46" s="6">
         <v>11700</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="43"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
+        <v>11790</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="53"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
+        <v>11790</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="28" t="s">
         <v>58</v>
-      </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="30"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="19">
-        <v>11700</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="30"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
-        <v>11701</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -2316,14 +2478,14 @@
       <c r="J48" s="30"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>11800</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>81</v>
+      <c r="A49" s="18">
+        <v>11790</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
@@ -2334,104 +2496,104 @@
       <c r="J49" s="30"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="19">
+      <c r="A50" s="6">
         <v>11800</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="30"/>
+      <c r="C50" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="19">
-        <v>11800</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="30"/>
+      <c r="A51" s="16">
+        <v>11801</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="19">
-        <v>11800</v>
+      <c r="A52" s="16">
+        <v>11890</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="30"/>
+      <c r="C52" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="43"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="19">
-        <v>11800</v>
+      <c r="A53" s="26">
+        <v>11890</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="30"/>
+      <c r="C53" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="19">
-        <v>11800</v>
+      <c r="A54" s="26">
+        <v>11890</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="30"/>
+      <c r="C54" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
-        <v>11801</v>
-      </c>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="18">
+        <v>11890</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
@@ -2442,14 +2604,14 @@
       <c r="J55" s="30"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="19">
-        <v>11801</v>
-      </c>
-      <c r="B56" s="8" t="s">
+      <c r="A56" s="18">
+        <v>11890</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
@@ -2460,14 +2622,14 @@
       <c r="J56" s="30"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
-        <v>12000</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>86</v>
+      <c r="A57" s="18">
+        <v>11890</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
@@ -2478,238 +2640,238 @@
       <c r="J57" s="30"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="19">
+      <c r="A58" s="6">
         <v>12000</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="30"/>
+      <c r="B58" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="43"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="19">
+      <c r="A59" s="16">
         <v>12000</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="43"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="16">
+        <v>12000</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="30"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="43"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="26">
         <v>12100</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B61" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C61" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="23"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="18">
+        <v>12190</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="30"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="19">
-        <v>12100</v>
-      </c>
-      <c r="B61" s="8" t="s">
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="53"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="18">
+        <v>12190</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C63" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="30"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="19">
-        <v>12100</v>
-      </c>
-      <c r="B62" s="8" t="s">
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="53"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="18">
+        <v>12190</v>
+      </c>
+      <c r="B64" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C64" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="30"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="19">
-        <v>12100</v>
-      </c>
-      <c r="B63" s="8" t="s">
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="53"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="18">
+        <v>12190</v>
+      </c>
+      <c r="B65" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C65" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="30"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="19">
-        <v>12100</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="53"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="18">
+        <v>12190</v>
+      </c>
+      <c r="B66" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C66" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="53"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="18">
+        <v>12191</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="33"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
         <v>13000</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C68" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="30"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="19">
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="43"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="16">
         <v>13000</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C69" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="30"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="19">
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="43"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="16">
         <v>13000</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B70" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C70" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="30"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="5">
-        <v>14000</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="30"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
-        <v>14000</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="30"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="5">
-        <v>14000</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="30"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="43"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
@@ -2718,16 +2880,16 @@
       <c r="B71" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="30"/>
+      <c r="C71" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="43"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
@@ -2736,16 +2898,16 @@
       <c r="B72" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="30"/>
+      <c r="C72" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="43"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
@@ -2754,298 +2916,343 @@
       <c r="B73" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="43"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>14000</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="43"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>14000</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="43"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>14000</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="30"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="34"/>
-      <c r="K74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="30"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="30"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="43"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="19"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="30"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="47"/>
+      <c r="K77" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="30"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="43"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="30"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="43"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="30"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="43"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="30"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="43"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="6"/>
+      <c r="A82" s="5"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="30"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="43"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="6"/>
+      <c r="A83" s="5"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="30"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="43"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="30"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="43"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="30"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="43"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
+      <c r="A86" s="6"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="30"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="43"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
+      <c r="A87" s="6"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="30"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="43"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
+      <c r="A88" s="6"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="30"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="43"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="30"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="43"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="43"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="43"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
+  <mergeCells count="82">
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="C91:J91"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
     <mergeCell ref="C86:J86"/>
     <mergeCell ref="C87:J87"/>
     <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
     <mergeCell ref="C81:J81"/>
     <mergeCell ref="C82:J82"/>
     <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
     <mergeCell ref="C76:J76"/>
     <mergeCell ref="C77:J77"/>
     <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C57:J57"/>
     <mergeCell ref="C58:J58"/>
     <mergeCell ref="C59:J59"/>
     <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C61:J61"/>
     <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C73:J73"/>
     <mergeCell ref="C63:J63"/>
+    <mergeCell ref="C64:J64"/>
     <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="C66:J66"/>
     <mergeCell ref="C53:J53"/>
     <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
     <mergeCell ref="C50:J50"/>
     <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C52:J52"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C47:J47"/>
     <mergeCell ref="C38:J38"/>
     <mergeCell ref="C39:J39"/>
     <mergeCell ref="C40:J40"/>
     <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C42:J42"/>
     <mergeCell ref="C28:J28"/>
     <mergeCell ref="C29:J29"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C37:J37"/>
     <mergeCell ref="C23:J23"/>
     <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C27:J27"/>
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="M2:T5"/>
     <mergeCell ref="C1:J1"/>
@@ -3080,23 +3287,23 @@
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="M1" s="40" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="M1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
@@ -3105,23 +3312,23 @@
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="M2" s="39" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="M2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -3130,16 +3337,16 @@
       <c r="B3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -3148,16 +3355,16 @@
       <c r="B4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -3166,16 +3373,16 @@
       <c r="B5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -3184,16 +3391,16 @@
       <c r="B6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -3202,16 +3409,16 @@
       <c r="B7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -3220,16 +3427,16 @@
       <c r="B8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -3238,16 +3445,16 @@
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -3256,16 +3463,16 @@
       <c r="B10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -3274,16 +3481,16 @@
       <c r="B11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -3292,16 +3499,16 @@
       <c r="B12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -3310,16 +3517,16 @@
       <c r="B13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -3328,16 +3535,16 @@
       <c r="B14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -3346,16 +3553,16 @@
       <c r="B15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -3364,16 +3571,16 @@
       <c r="B16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
@@ -3382,64 +3589,64 @@
       <c r="B17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3475,107 +3682,268 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9E069E-A6EA-4258-899E-AF7D76EEB425}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="61.375" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="7" max="7" width="86.125" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="17" max="17" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26">
+        <v>11090</v>
+      </c>
+      <c r="C2" s="26">
+        <v>11390</v>
+      </c>
+      <c r="D2" s="27">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26">
+        <v>11391</v>
+      </c>
+      <c r="C3" s="26">
+        <v>11392</v>
+      </c>
+      <c r="D3" s="26">
+        <v>2</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="M3" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
-        <v>11090</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="N3" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="B4" s="26">
+        <v>11393</v>
+      </c>
+      <c r="C4" s="26">
+        <v>11394</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="L2" s="13">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13" t="s">
+      <c r="G4" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="M4" s="12">
+        <v>2</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L3" s="13">
-        <v>1</v>
-      </c>
-      <c r="M3" s="13" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26">
+        <v>11790</v>
+      </c>
+      <c r="C5" s="26">
+        <v>11890</v>
+      </c>
+      <c r="D5" s="26">
+        <v>2</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="M5" s="12">
+        <v>3</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L4" s="13">
+    <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26">
+        <v>12190</v>
+      </c>
+      <c r="C6" s="26">
+        <v>12191</v>
+      </c>
+      <c r="D6" s="26">
         <v>2</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L5" s="13">
-        <v>3</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="E6" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26">
+        <v>2</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="26">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26">
+        <v>2</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
+        <v>8</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26">
+        <v>2</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3587,7 +3955,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466ECBD9-9875-43F8-BF92-18A74A2E8544}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/2.IngameScene/DB/ExcelDB/ExcelDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5867C0B7-A75C-46BC-AE9D-AB56BF47FA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35EF6D9-07B9-478F-84DF-6FA43DE9A927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="225">
   <si>
     <t>코하쿠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -938,10 +938,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>광부 피콬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나 대신 동굴 안쪽에 있는 반짝수정들을 좀 캐줄 수 있는가???? 내 부탁 좀 함세!!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -962,28 +958,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>바다의 기운? 민트불가사리를 구해오자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵을 돌아다니며 민트불가사리 15마리를 채집해 마녀에게 건내자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일하는 중이네. 방해하지 마시게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 광석을 얻으면 두번 뛴다던가 높은 곳을 쉽게 오를 수 있다고 해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음? 자네는? 혹시 나에게 뭔가 물어볼게 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>맵을 돌아다니며 푸른 반짝수정 3개, 보라 반짝수정 3개, 초록 반짝수정 3개를 구해 피콕에게 건내자.
-(마녀 킨킨이 유용한 선물을 준다고 한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바다의 기운? 민트불가사리를 구해오자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵을 돌아다니며 민트불가사리 15마리를 채집해 마녀에게 건내자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일하는 중이네. 방해하지 마시게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 광석을 얻으면 두번 뛴다던가 높은 곳을 쉽게 오를 수 있다고 해!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음? 자네는? 혹시 나에게 뭔가 물어볼게 있는가?</t>
+(광부 피콕이 유용한 선물을 준다고 한다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,6 +1267,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1280,49 +1306,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1805,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
   <dimension ref="A1:T140"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1823,26 +1819,26 @@
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="M1" s="52" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="M1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="51"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1861,16 +1857,16 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="45"/>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
@@ -1889,14 +1885,14 @@
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="45"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
@@ -1905,24 +1901,24 @@
       <c r="B4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
@@ -1931,24 +1927,24 @@
       <c r="B5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
@@ -1957,16 +1953,16 @@
       <c r="B6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -1975,16 +1971,16 @@
       <c r="B7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -1993,16 +1989,16 @@
       <c r="B8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -2084,7 +2080,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
@@ -2246,7 +2242,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
@@ -2641,16 +2637,16 @@
       <c r="B44" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="58"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
@@ -2821,16 +2817,16 @@
       <c r="B54" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="48"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="58"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
@@ -2894,7 +2890,7 @@
         <v>73</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D58" s="44"/>
       <c r="E58" s="44"/>
@@ -3148,16 +3144,16 @@
       <c r="B72" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="46" t="s">
+      <c r="C72" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="48"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="58"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
@@ -3166,16 +3162,16 @@
       <c r="B73" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="46" t="s">
+      <c r="C73" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="48"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="58"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
@@ -3184,16 +3180,16 @@
       <c r="B74" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="46" t="s">
+      <c r="C74" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="48"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="58"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
@@ -3202,16 +3198,16 @@
       <c r="B75" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="48"/>
+      <c r="C75" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="58"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
@@ -3220,16 +3216,16 @@
       <c r="B76" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="46" t="s">
+      <c r="C76" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="48"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="58"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
@@ -4157,7 +4153,7 @@
         <v>82</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
@@ -4325,16 +4321,40 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C131:J131"/>
+    <mergeCell ref="C137:J137"/>
+    <mergeCell ref="C138:J138"/>
+    <mergeCell ref="C139:J139"/>
+    <mergeCell ref="C140:J140"/>
+    <mergeCell ref="C132:J132"/>
+    <mergeCell ref="C133:J133"/>
+    <mergeCell ref="C134:J134"/>
+    <mergeCell ref="C135:J135"/>
+    <mergeCell ref="C136:J136"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C91:J91"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="M2:T5"/>
@@ -4351,42 +4371,18 @@
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C44:J44"/>
     <mergeCell ref="C42:J42"/>
     <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C90:J90"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C91:J91"/>
-    <mergeCell ref="C131:J131"/>
-    <mergeCell ref="C137:J137"/>
-    <mergeCell ref="C138:J138"/>
-    <mergeCell ref="C139:J139"/>
-    <mergeCell ref="C140:J140"/>
-    <mergeCell ref="C132:J132"/>
-    <mergeCell ref="C133:J133"/>
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="C135:J135"/>
-    <mergeCell ref="C136:J136"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C46:J46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4414,23 +4410,23 @@
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="M1" s="62" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="M1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
@@ -4449,13 +4445,13 @@
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="45"/>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -4554,7 +4550,7 @@
       <c r="B8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="46" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="44"/>
@@ -4572,7 +4568,7 @@
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="59" t="s">
         <v>112</v>
       </c>
       <c r="D9" s="44"/>
@@ -4730,67 +4726,53 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
@@ -4800,6 +4782,20 @@
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4812,7 +4808,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5029,10 +5025,10 @@
         <v>136</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H7" s="26"/>
     </row>
@@ -5053,10 +5049,10 @@
         <v>136</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H8" s="26"/>
     </row>
@@ -5100,13 +5096,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H10" s="41" t="s">
         <v>202</v>
